--- a/documents/CHHS-Open-Data-Priority-Scoring-Template.xlsx
+++ b/documents/CHHS-Open-Data-Priority-Scoring-Template.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvalle\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3D3D8-0830-4AB8-9071-0A442F1CD2BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A951FC-67E4-4D8B-919A-288AAAEE4A30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1234,9 +1229,7 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1403,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="33">
-        <f>SUM(G3:P3)</f>
+        <f t="shared" ref="Q3:Q47" si="0">SUM(G3:P3)</f>
         <v>24</v>
       </c>
       <c r="R3" s="21">
@@ -1434,7 +1427,7 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="34">
-        <f>SUM(G4:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="46"/>
@@ -1459,7 +1452,7 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="34">
-        <f>SUM(G5:P5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="46"/>
@@ -1484,7 +1477,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="34">
-        <f>SUM(G6:P6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="46"/>
@@ -1509,7 +1502,7 @@
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="34">
-        <f>SUM(G7:P7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="46"/>
@@ -1534,7 +1527,7 @@
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="34">
-        <f>SUM(G8:P8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="46"/>
@@ -1559,7 +1552,7 @@
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="34">
-        <f>SUM(G9:P9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="46"/>
@@ -1584,7 +1577,7 @@
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="34">
-        <f>SUM(G10:P10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="46"/>
@@ -1609,7 +1602,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="34">
-        <f>SUM(G11:P11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="46"/>
@@ -1634,7 +1627,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="34">
-        <f>SUM(G12:P12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="46"/>
@@ -1659,7 +1652,7 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="34">
-        <f>SUM(G13:P13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="46"/>
@@ -1684,7 +1677,7 @@
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="34">
-        <f>SUM(G14:P14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="46"/>
@@ -1709,7 +1702,7 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="34">
-        <f>SUM(G15:P15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="46"/>
@@ -1734,7 +1727,7 @@
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="34">
-        <f>SUM(G16:P16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="46"/>
@@ -1759,7 +1752,7 @@
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="34">
-        <f>SUM(G17:P17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R17" s="46"/>
@@ -1784,7 +1777,7 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="34">
-        <f>SUM(G18:P18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="46"/>
@@ -1809,7 +1802,7 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="34">
-        <f>SUM(G19:P19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="46"/>
@@ -1834,7 +1827,7 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="34">
-        <f>SUM(G20:P20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="46"/>
@@ -1859,7 +1852,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="34">
-        <f>SUM(G21:P21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21" s="46"/>
@@ -1884,7 +1877,7 @@
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="34">
-        <f>SUM(G22:P22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R22" s="46"/>
@@ -1909,7 +1902,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="34">
-        <f>SUM(G23:P23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R23" s="46"/>
@@ -1934,7 +1927,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="34">
-        <f>SUM(G24:P24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R24" s="46"/>
@@ -1959,7 +1952,7 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="34">
-        <f>SUM(G25:P25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R25" s="46"/>
@@ -1984,7 +1977,7 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="34">
-        <f>SUM(G26:P26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R26" s="46"/>
@@ -2009,7 +2002,7 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="34">
-        <f>SUM(G27:P27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="46"/>
@@ -2034,7 +2027,7 @@
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="34">
-        <f>SUM(G28:P28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R28" s="46"/>
@@ -2059,7 +2052,7 @@
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="34">
-        <f>SUM(G29:P29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R29" s="46"/>
@@ -2084,7 +2077,7 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="34">
-        <f>SUM(G30:P30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R30" s="46"/>
@@ -2109,7 +2102,7 @@
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="34">
-        <f>SUM(G31:P31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R31" s="46"/>
@@ -2134,7 +2127,7 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="34">
-        <f>SUM(G32:P32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R32" s="46"/>
@@ -2159,7 +2152,7 @@
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="34">
-        <f>SUM(G33:P33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="46"/>
@@ -2184,7 +2177,7 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="34">
-        <f>SUM(G34:P34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R34" s="46"/>
@@ -2209,7 +2202,7 @@
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="34">
-        <f>SUM(G35:P35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R35" s="46"/>
@@ -2234,7 +2227,7 @@
       <c r="O36" s="30"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="34">
-        <f>SUM(G36:P36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R36" s="46"/>
@@ -2259,7 +2252,7 @@
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="34">
-        <f>SUM(G37:P37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R37" s="46"/>
@@ -2284,7 +2277,7 @@
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="34">
-        <f>SUM(G38:P38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R38" s="46"/>
@@ -2309,7 +2302,7 @@
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="34">
-        <f>SUM(G39:P39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R39" s="46"/>
@@ -2334,7 +2327,7 @@
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="34">
-        <f>SUM(G40:P40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R40" s="46"/>
@@ -2359,7 +2352,7 @@
       <c r="O41" s="30"/>
       <c r="P41" s="30"/>
       <c r="Q41" s="34">
-        <f>SUM(G41:P41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R41" s="46"/>
@@ -2384,7 +2377,7 @@
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
       <c r="Q42" s="34">
-        <f>SUM(G42:P42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R42" s="46"/>
@@ -2409,7 +2402,7 @@
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
       <c r="Q43" s="34">
-        <f>SUM(G43:P43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="46"/>
@@ -2434,7 +2427,7 @@
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="34">
-        <f>SUM(G44:P44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R44" s="46"/>
@@ -2459,7 +2452,7 @@
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
       <c r="Q45" s="34">
-        <f>SUM(G45:P45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R45" s="46"/>
@@ -2484,7 +2477,7 @@
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="34">
-        <f>SUM(G46:P46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R46" s="46"/>
@@ -2509,7 +2502,7 @@
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="34">
-        <f>SUM(G47:P47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R47" s="46"/>
@@ -2528,355 +2521,4 @@
 Program Data</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="500343c0-af67-4d55-b6f3-a7838e163d14">DVSN-1391850543-9</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="500343c0-af67-4d55-b6f3-a7838e163d14">
-      <Url>https://osicagov.sharepoint.com/sites/divisions/AIO/Open%20Data/_layouts/15/DocIdRedir.aspx?ID=DVSN-1391850543-9</Url>
-      <Description>DVSN-1391850543-9</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C3210ECF592FD4D90843AAE0B810EBF" ma:contentTypeVersion="74" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a48379aaf0e67bddc170f680eeebf454">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="500343c0-af67-4d55-b6f3-a7838e163d14" xmlns:ns3="cad3a9a0-101d-4290-a50f-fb7c1e60aab3" xmlns:ns4="bfdb98f6-8405-45bb-b09b-f67a815e7dc6" xmlns:ns5="495b56f0-31ab-42ae-b914-8a913073f2d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e34c992ceb8a98cc53e4ca3c9ee70a3b" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
-    <xsd:import namespace="500343c0-af67-4d55-b6f3-a7838e163d14"/>
-    <xsd:import namespace="cad3a9a0-101d-4290-a50f-fb7c1e60aab3"/>
-    <xsd:import namespace="bfdb98f6-8405-45bb-b09b-f67a815e7dc6"/>
-    <xsd:import namespace="495b56f0-31ab-42ae-b914-8a913073f2d4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:LastSharedByUser" minOccurs="0"/>
-                <xsd:element ref="ns4:LastSharedByTime" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns5:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="500343c0-af67-4d55-b6f3-a7838e163d14" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cad3a9a0-101d-4290-a50f-fb7c1e60aab3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bfdb98f6-8405-45bb-b09b-f67a815e7dc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="LastSharedByUser" ma:index="13" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:internalName="LastSharedByUser" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="LastSharedByTime" ma:index="14" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:internalName="LastSharedByTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="495b56f0-31ab-42ae-b914-8a913073f2d4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E00302-D89C-476C-B3F4-0F0AC70D0E7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A5DF02-3607-40DF-9DF1-1F5C9F4E811A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F15CC1-C484-4D08-B02A-183AD87F73CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F458B4BC-A2B0-4D70-AC1A-CDE7EBA457ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="500343c0-af67-4d55-b6f3-a7838e163d14"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E753FA8A-6987-43AC-9452-FE73A40A6E18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="500343c0-af67-4d55-b6f3-a7838e163d14"/>
-    <ds:schemaRef ds:uri="cad3a9a0-101d-4290-a50f-fb7c1e60aab3"/>
-    <ds:schemaRef ds:uri="bfdb98f6-8405-45bb-b09b-f67a815e7dc6"/>
-    <ds:schemaRef ds:uri="495b56f0-31ab-42ae-b914-8a913073f2d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/CHHS-Open-Data-Priority-Scoring-Template.xlsx
+++ b/documents/CHHS-Open-Data-Priority-Scoring-Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A951FC-67E4-4D8B-919A-288AAAEE4A30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8018E6BA-6377-4FAF-935F-A458E3DED64A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring Criteria" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Scoring Sheet'!$B$1:$T$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Scoring Sheet'!$B:$C,'Scoring Sheet'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -503,21 +510,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF506BB0"/>
       <name val="Arial"/>
@@ -547,6 +539,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.5"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.5"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -691,15 +698,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,41 +712,39 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,6 +752,17 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,108 +1109,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="117" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="117" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="8.86328125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:1" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="237" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:1" ht="237" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:1" ht="136.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:1" ht="95.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:1" ht="127.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:1" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:1" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="138" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:1" ht="138.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:1" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:1" ht="179.65" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:1" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:1" ht="69.400000000000006" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1229,30 +1236,32 @@
   </sheetPr>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="17.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="17" style="31" customWidth="1"/>
-    <col min="13" max="14" width="17.109375" style="31" customWidth="1"/>
-    <col min="15" max="16" width="17" style="31" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" style="35" customWidth="1"/>
-    <col min="18" max="19" width="17.109375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="29.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.1328125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="17" style="25" customWidth="1"/>
+    <col min="13" max="14" width="17.1328125" style="25" customWidth="1"/>
+    <col min="15" max="16" width="17" style="25" customWidth="1"/>
+    <col min="17" max="17" width="17.1328125" style="28" customWidth="1"/>
+    <col min="18" max="19" width="17.1328125" style="40" customWidth="1"/>
     <col min="20" max="20" width="92.6640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
@@ -1280,28 +1289,28 @@
       <c r="I1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="26" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="10" t="s">
@@ -1314,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="102.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13" t="s">
@@ -1332,85 +1341,85 @@
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="48" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="16"/>
       <c r="T2" s="17"/>
     </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:20" ht="43.9" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="45">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="46">
         <v>4</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="46">
         <v>3</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="46">
         <v>2</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="46">
         <v>3</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="46">
         <v>5</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="46">
         <v>4</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="46">
         <v>3</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="47">
         <f t="shared" ref="Q3:Q47" si="0">SUM(G3:P3)</f>
         <v>24</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="48">
         <v>4</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1419,23 +1428,23 @@
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1444,23 +1453,23 @@
       <c r="G5" s="6"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="19"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1469,23 +1478,23 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="19"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1494,23 +1503,23 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1519,23 +1528,23 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1544,23 +1553,23 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1569,23 +1578,23 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1594,23 +1603,23 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="19"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1619,23 +1628,23 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1644,23 +1653,23 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1669,23 +1678,23 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1694,23 +1703,23 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1719,23 +1728,23 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1744,23 +1753,23 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1769,23 +1778,23 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1794,23 +1803,23 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1819,23 +1828,23 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" s="19"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1844,23 +1853,23 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22" s="19"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1869,23 +1878,23 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1894,23 +1903,23 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24" s="19"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1919,23 +1928,23 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25" s="19"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1944,23 +1953,23 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1969,23 +1978,23 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A27" s="19"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1994,23 +2003,23 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2019,23 +2028,23 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29" s="19"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2044,23 +2053,23 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30" s="19"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2069,23 +2078,23 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31" s="19"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2094,23 +2103,23 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32" s="19"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2119,23 +2128,23 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A33" s="19"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2144,23 +2153,23 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2169,23 +2178,23 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A35" s="19"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2194,23 +2203,23 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36" s="19"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2219,23 +2228,23 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37" s="19"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2244,23 +2253,23 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38" s="19"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -2269,23 +2278,23 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39" s="19"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2294,23 +2303,23 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A40" s="19"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2319,23 +2328,23 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41" s="19"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2344,23 +2353,23 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="19"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2369,23 +2378,23 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43" s="19"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2394,23 +2403,23 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="19"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2419,23 +2428,23 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="19"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2444,23 +2453,23 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A46" s="19"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2469,23 +2478,23 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="19"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2494,19 +2503,19 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
       <c r="T47" s="6"/>
     </row>
   </sheetData>
